--- a/51_발표PT자료/01_기획_스크립트.xlsx
+++ b/51_발표PT자료/01_기획_스크립트.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>B.소개 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Script(Keyword위주)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고도화 - 지원 암호화폐 다양화, 예치 암호화폐 대주(여신)기능 추가 
-IoT - 라즈베리파이 &amp;  Ethereum
-기부 Contract</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,61 +88,6 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BM(Usecase) 에 비중을둠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Screenshot과 AA장표는 간략하게 소개</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사내 블록체인 표준기술인 
-hyperledger-Febric기술항목들과 매핑표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 작성하여, 
-관련인력의 이해도 높임.</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,6 +225,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>- 가트너 10대기술 장표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 고도화 안 1장 
 - 다른주제 PoC 1장</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,55 +238,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 중요한 개념은 가급적 장표를 작성하되 PT시엔 아래 스크립트에 맞춰 생략한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- Usecase - 암호화폐 시세 연간그래프
-(변동성 설명)
-- Stakeholder : investor/hedger 소개
-- 거래 전후 정산 표
-- 시연 3장(webpage + 지갑결재창)
-  (A가 등록,B가 채결, 정산후 결과)
-- AA 그림 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1- 가트너 10대기술 장표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">- 1세대 2세대 특징 
 - SmartContract 구조도 
-- EEA, DappMarket, 삼전Poc 활용도 
-</t>
+- EEA, DappMarket, 삼전Poc 활용도 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>- 기술요소 비교표
-- 기술요소 ScreeenShot
-- ethereum milestone, 멀티플랫폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum의 핵심 Keyword는  SmartContract입니다.
-블록체인 1세대 비트코인이 A로부터 B로 송금한 내역을 모든 Peer가 같이 보유해서 그 거래를 인증했다면,
-블록체인 2세대인 이더리움은 거래내역과 계약이라 불리는 비즈니스 로직을 모든 Peer가 같이 보유하고 같이 실행합니다.
-이로서, SmartContract 수행결과는 모든 Peer에서 동일하며, 계약 의 수행 결과는 모두 신뢰할 수 있습니다.
-이러한 특성을 기반으로  탈중앙화, 무신뢰 개체간 계약등의 서비스가 가능해지며
-이를 기업 비즈니스에서 활용하기 위한 EEA
-불특정 다수의 B2C서비스를 제공하는 Ethereum Dapp Market
-삼성전자의 IoT연계를 검증하는 세탁기 - Ethereum PoC 등 다양한 방향으로 PoC 및 서비스 개발이 진행되고 있습니다.</t>
+- 기술요소 ScreeenShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 중요한 개념은 가급적 장표를 작성하되 PT시엔 아래 스크립트에 맞춰 생략한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용기술
+개발환경
+사내 블록체인 표준기술인 
+hyperledger-Febric기술항목들과 매핑표</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
@@ -351,9 +281,68 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-여러분, 비트코인 또는 이더리움 투자 해보셨나요?
-국내 암호화폐거래소의 일일 거래액이 코스닥을 능가했다고 합니다.</t>
+      <t xml:space="preserve"> 작성하여, 
+관련인력의 이해도 높임.
+go-client
+web3.js
+solidity
+node.js
+jquery
+git
+Atom editor(solidity plugin)
+Rospten TestNet, LocalTestnet
+Browser Solidity</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum 프로젝트는 이더리움재단을 주축으로 하는 오픈소스프로젝트로, 멀티플랫폼을 지원하며,
+개발 Roadmap에 따라, 현재 Homestead 단계에 진입한 상태입니다.
+사용된 기술요소는 직관적인 비교를 위해, 사내 블록체인 표준기술인Hyperledger-Febric의 기술요소와 매핑했습니다.
+주요 기술로 , 
+Backend 즉 Smartcontract를 작성하는 Solidity, 
+Frontend, Web에서 Ethereum노드와 통신하며 서비스를 제공하는 web3.js
+가 있고, 
+그외 공통요소인 jquery, node.js/ git 등이 활용되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum의 대표 Keyword는  SmartContract입니다.
+블록체인 1세대인 비트코인이 A로부터 B로 송금한 내역을 모든 Peer가 같이 보유해서 그 거래를 인증했다면,
+블록체인 2세대인 이더리움은 송금내역과 SmartContract이라 불리는 비즈니스 로직을 모든 Peer가 같이 보유하고 실행합니다.
+이로서, SmartContract 수행결과는 모든 Peer에서 동일하며, 계약 의 수행 결과는 모두 신뢰할 수 있습니다.
+이러한 특성을 기반으로  탈중앙화, 무신뢰개체간 계약등의 서비스가 가능해지며
+이를 기업 비즈니스에서 활용하기 위한 EEA
+앱스토어와 동일한방식으로 B2C서비스를 제공하는 Ethereum Dapp Market
+삼성전자의 IoT연계를 검증하는 세탁기 - Ethereum PoC 등 다양한 방향으로 PoC 및 서비스 개발이 진행되고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가트너 선정 2017, 2018 10대 전략기술 으로 선정되었음 
+2017년은 
+분산원장으로서, 다소 제한적 용도의 블록체인 개념으로 접근 되었다면 
+2018년은 
+BackendITInfra개념의 매쉬로 분류되며 블록체인 개념 그 자체로 확장해가고 있습니다.
+다양한 업권에서 실험적인 PoC를 거치며 활용가능성을 구체화 하는 과정입니다.
+우리 과제도 그러한PoC의 일환으로 진행되었습니다.
+그 중심에 Ethereum 기술이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기술적 관점과(Blockchain) , 시장수요관점의 조합(암호화폐투자시장)
+시연(ScreenShot 위주)
+ApplicationArchitecture 그림1개
+BM(Usecase) 에 비중을둠</t>
     </r>
     <r>
       <rPr>
@@ -365,41 +354,69 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-직접 투자하지 않아도,  뉴스를 통해  폭등, 투기 등의 키워드를 함께 접하실수 있을껍니다.  
-저희는 암호화폐의 기술적 근원인  블록체인을 직접 활용해 이더리움 통화시장의 투자수요와 햇지 수요를 상호간 충족할수 있는 BM을 구현해 보았습니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가트너 선정 2017, 2018 10대 전략기술 으로 선정되었음 
-2017년은 
-분산원장으로서, 비트코인으로부터의 블록체인 개념으로 접근 되었다면 
-2018년은 
-블록체인 개념 그 자체로, 매시(backend infra)로 분류됨.
-다양한 업권에서 실험적인 PoC를 거치며 활용가능성을 구체화 하는 과정.
-우리 과제도 그러한PoC의 일환으로 진행되었습니다.
-그 중심에 Ethereum 기술이 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술적 관점과(Blockchain) , 수요관점의 조합(암호화폐투자시장)
-시연(ScreenShot 위주)
-ApplicationArchitecture 그림1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">사용기술
-개발환경
-go-client
-web3.js
-solidity
-node.js
-jquery
-git
-Atom editor(solidity plugin)
-Rospten TestNet, LocalTestnet
-Browser Solidity
-Ethereum의 개발 </t>
+Screenshot과 AA장표는 간략하게 소개
+*거래소는 OrderBook과 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분, 비트코인 또는 이더리움 투자 해보셨나요
+국내 암호화폐 거래소의 일일거래액이 코스닥을 능가했다고합니다.
+직접 투자하지 않아도, 뉴스를 통해 폭등, 투기 등의 키워드를 함께 접하실수 있을껍니다.
+저희는 암호화폐의 기술적 근원인 블록체인을 직접 활용해 이더리움 통화시장의 투자 수요와 리스크 햇지 수요를 상호간 충족할 수 있는 BM을 구현해 보았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 계획은 2가지 방향이 있습니다.
+기존의 구현된 결과물을 고도화 하여 지원되는 암호화폐의 다양화, 
+사용자의 예치화폐를 이용한 여신기능 추가도 고려 가능합니다.
+또는 전혀 새로운 업권으로의 PoC도 고려중입니다.
+이더리움의 미래 가치는  블록체인이 메시기술로 분류된것과 일맥상통합니다.
+IoT와 접목되어 무신뢰,무인격 개체간 네트워크 상 거래에서 신뢰를 보장
+기부 Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술과는 별개로 , 암호화폐 거래시장에서의 이더리움은 위상이 높습니다.
+시가 총액은 비트코인에 이어 2위에 위치하며, 
+올해 1Ether당 가격은  연초 만원대로 시작하여 50만원을거쳐 현재 30만원대에 이르기까지 급격한 변동성을 보입니다.
+이런 변동성이 우리 BM의 수요를 만듭니다.
+여기에 2명의 이더리움을 보유한 수요자가 있습니다.
+에어비엔비를 통해  단기 임대사업을 하는 김비엔비씨는 인터넷을 통해 이더리움을 결재수단으로 받으며, 그렇게 보유한 이더리움 자산이 안정적인 원화가치를 갖길 원합니다. 즉 리스크헷지를 원합니다.
+반대로, 이더의 가치변동성을 연구해온 최투자씨는 특정시점의 컨퍼런스, 호재발표 등을 통해 가치가 폭등하는 패턴을 연구해, 더 큰 투자수익을 원합니다.
+두사람은 각각 우리 마켓에 접속합니다.
+김비엔비씨는 2달뒤 특정일자로 정산일을 설정하고, Hedger옵션을 선택한 신규주문을 만들고
+최투자씨는 김비엔비씨가 만든 주문의 정산일자에,  Invester옵션을 선택해 해당주문을 체결합니다. 
+최투자씨는 김비엔비씨의 주문에 설정된 정산일의 이더 당 원화가치가  현재보다 상승해있을 것임을 예상합니다.
+체결과 동시에 두사람이 보유한 이더리움 자산은 우리 마켓의 smartcontract에 예치되며, 정산일에 도달하면 수수료를 제외 후 , 정산하여 원래의 최투자,김비엔비씨의 이더리움지갑으로 송금됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- Usecase - 
+ 암호화폐 시가총액(coinmarketcap.com)
+ 이더리움 시세 연간그래프
+- Stakeholder : investor/hedger 소개
+- 시연 3장(webpage + 지갑결재창)
+  (A가 등록,B가 채결, 정산후 결과)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정산로직은 심플합니다.
+0. 전체 예치수량 중 거래 수수료를 제한 후 
+1. 예치시점의 1인당 예치 원화가치에 상응하는 , 정산시점 시세에 맞춘 이더리움 수량을 계산후 Hedger 옵션주문자에게 전송하고, 
+2. 그외 남은 이더리움 수량을 Investor에게 전송합니다. 
+Hedger는 예치시점 원화가치를 유지해서 요건을 충족했고,
+Investor는 변동된 가치에 따라 상승장엔 Hedeger의 원화가치상승분을 수익으로 얻고 하락장엔 Hedger의 원화가치 하락분을 보전해주게 됩니다.
+이 모든 과정은 중앙집권화된 기관, 서버 ,운영자의 개입이 없이, 이더리움 블록체인 상에서 Smartcontract을 통해 이루어집니다. 이를 탈 중앙화라고 합니다. 탈중앙화의 추가설명은 시간관계상 생략하겠습니다.
+관련 AA는 다음과 같습니다.(10초정도 부연설명)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 거래 전후 정산 표
+( 3대거래소 시세 평균 가져오는것 표현)
+- AA 그림(탈중앙화) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +509,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -519,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -577,13 +601,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +726,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,10 +1047,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -990,8 +1058,8 @@
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="56.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="58.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="8" customWidth="1"/>
     <col min="6" max="6" width="4.125" style="22" customWidth="1"/>
     <col min="7" max="7" width="52.125" style="8" customWidth="1"/>
   </cols>
@@ -1009,19 +1077,19 @@
     </row>
     <row r="2" spans="1:7" ht="27">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="5" t="s">
@@ -1031,7 +1099,7 @@
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="3">
-        <f>SUM(B4:B9)</f>
+        <f>SUM(B4:B10)</f>
         <v>360</v>
       </c>
       <c r="C3" s="4">
@@ -1043,14 +1111,14 @@
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="24">
-        <f>SUM(F4:F9)</f>
+        <f>SUM(F4:F10)</f>
         <v>15</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="108" customHeight="1">
+    <row r="4" spans="1:7" ht="150" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1058,11 +1126,11 @@
         <v>20</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F4" s="19">
         <v>1</v>
@@ -1080,16 +1148,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F5" s="20">
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="234" customHeight="1">
@@ -1103,10 +1171,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="20">
         <v>3</v>
@@ -1115,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="193.5" customHeight="1">
+    <row r="7" spans="1:7" ht="286.5" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1126,69 +1194,85 @@
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F7" s="21">
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="151.5" customHeight="1">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="31">
         <v>160</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>28</v>
+      <c r="E8" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="F8" s="21">
         <v>7</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="87.75" customHeight="1">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7" ht="250.5" customHeight="1">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="288.75" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B10" s="14">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="21">
+      <c r="D10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="21">
         <v>2</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/51_발표PT자료/01_기획_스크립트.xlsx
+++ b/51_발표PT자료/01_기획_스크립트.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="435" windowWidth="24795" windowHeight="12255"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>B.소개 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왜 블록체인인가?</t>
-  </si>
-  <si>
     <t>왜 이더리움인가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,11 +55,6 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 탈 중앙화 : 중앙집권화된 매개체 없이 
-                  모든 개체(Peer) 가 동등한 권리와 정보로 거래</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -225,16 +217,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>장표(내용/Page)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- Usecase - 
+ 암호화폐 시가총액(coinmarketcap.com)
+ 이더리움 시세 연간그래프
+- Stakeholder : investor/hedger 소개
+- 시연 3장(webpage + 지갑결재창)
+  (A가 등록,B가 채결, 정산후 결과)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethereum 프로젝트는 이더리움재단을 주축으로 하는 오픈소스프로젝트로, 멀티플랫폼을 지원하며,
+개발 Roadmap에 따라, 현재 Metropolis 단계로 진입중인 상태입니다.
+사용된 기술요소는 직관적인 비교를 위해, 사내 블록체인 표준기술인Hyperledger-Febric의 기술요소와 매핑했습니다.
+주요 기술로 , 
+Backend 즉 Smartcontract를 작성하는 Solidity, 
+Frontend, Web에서 Ethereum노드와 통신하며 서비스를 제공하는 web3.js
+가 있고, 
+그외 공통요소인 jquery, node.js/ git 등이 활용되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 중요한 개념은 가급적 장표를 작성하되 PT시엔 아래 스크립트에 맞춰 생략한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 기술요소 비교표
+- 기술요소 ScreeenShot
+-chain code / contract
+-Go , java   / Solidity, phython,,
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>암호화폐 거래시장에서의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이더리움은 비트코인에 이어, 시가총액 2위입니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+올해 1Ether당 가격은 연초 만원대로 시작하여 50만원을거쳐 현재 30만원대에 이르기까지 급격한 변동성을 보입니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+이런 변동성이 우리 BM의 수요를 만듭니다.
+여기에 2명의 이더리움을 보유한 수요자가 있습니다.
+에어비엔비를 통해  단기 임대사업을 하는 김헷지씨는 인터넷을 통해 이더리움을 결재수단으로 받으며, 그렇게 보유한 이더리움 자산이 안정적인 원화가치를 갖길 원합니다. 즉 리스크헷지를 원합니다.
+반대로, 이더의 가치변동성을 연구해온 최투자씨는 특정시점의 컨퍼런스, 호재발표 등을 통해 가치가 폭등하는 패턴을 연구해, 더 큰 투자수익을 원합니다.
+두사람은 각각 우리 마켓에 접속합니다.
+김헷지는 2달뒤 특정일자로 정산일을 설정하고, Hedger옵션을 선택한 신규주문을 만들고
+최투자씨는 김헷지씨가 만든 주문에,  Invester옵션을 선택해 맞 체결합니다. 
+최투자씨는 김헷지씨의 주문에 설정된 정산일의 이더 당 원화가치가  현재보다 상승해있을 것임을 예상합니다.
+체결과 동시에 두사람이 보유한 이더리움 자산은 우리 마켓의 smartcontract에 예치되며, 정산일에 도달하면 수수료를 제외 후 , 정산하여 원래의 최투자,김헷지의 이더리움지갑으로 송금됩니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두사람은 각각 우리 마켓에 접속합니다.
+1. 김헷지는 2달뒤 특정일자로 정산일을 설정하고, Hedger옵션을 선택한 신규주문을 만들고
+2. 최투자씨는 김헷지씨가 만든 주문에,  Invester옵션을 선택해 맞 체결합니다. 
+최투자씨는 김헷지씨의 주문에 설정된 정산일의 이더 당 원화가치가  현재보다 상승해있을 것임을 예상합니다.
+3. 체결과 동시에 두사람이 보유한 이더리움 자산은 우리 마켓의 smartcontract에 예치되며, 정산일에 도달하면 수수료를 제외 후 , 정산하여 원래의 최투자,김헷지의 이더리움지갑으로 송금됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 거래등록/체결 시점 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETH/KRW 시세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 300,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 거래 정산시점 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2달후 미래시점 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인당 예치된 원화가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">배분수량 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 200Eth( 김씨 100 + 투자 100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 450,000( 상승장 , investor에게 수익이감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000만원( 수수료 제외 2970만원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수수료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hedger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 Eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66 Eth( 원화 2970만원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132 Eth( 원화 5940만원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 김헷지가 거래등록 ( 결재창도 별도로 캡쳐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 최투자가 거래체결 ( 결재창도 별도로 캡쳐)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 정산결과 ( 정산 컬럼에 위 배분수량 표시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 블록체인인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분, 비트코인 또는 이더리움 투자 해보셨나요
+국내 암호화폐 거래소의 일일거래액이 코스닥을 능가했다고합니다.
+투자 경험이 없어도, 암호화폐 가치폭등, 투기열풍 같은 기사는 접하셨을 겁니다.
+저희는 암호화폐의 기술적 근원인 블록체인을 직접 활용해 이더리움 통화시장의 투자 수요와 리스크 햇지 수요를 상호간 충족할 수 있는 BM을 구현해 보았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록체인은 매년 가트너가 선정하는 10대 전략기술에 2017, 2018 2년 연속 선정이 되었습니다.
+2017년은  분산원장이라는 최신기술로 제한되어 알려졌다면,
+2018년은 BackendITInfra개념의 매쉬로 분류되며, 산업 전반에 영향을 줄 수 있는 핵심기술로 판단하고 있는 것을 볼 수 있습니다.
+다양한 업종에서 실험적인 PoC를 거치며 활용가능성을 구체화 하는 과정입니다.
+우리 과제도 그러한PoC의 일환으로 진행되었습니다.
+그 중심에 Ethereum 기술이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+위에서 언급했듯 블록체인의 주요 특징은 분산원장입니다.
+블록체인 1세대인 비트코인이 A로부터 B로 송금한 내역을 모든 Peer가 보유하도록 합니다.
+Ethereum과 비트코인의 가장 큰 차이는 SmartContract입니다.
+블록체인 2세대인 이더리움은 송금내역과 SmartContract라 불리는 비지니스로직을 모든 Peer가 보유하고, 실행하도록 합니다.
+이로서, SmartContract 수행결과는 모든 Peer에서 동일한 것으로 신뢰 할 수 있습니다.
+이러한 특성을 기반으로  탈중앙화, 무신뢰개체간 계약등의 서비스가 가능해지며
+이를 기업 비즈니스에서 활용하기 위한 EEA
+앱스토어생태계와 비슷하게 B2C서비스를 제공하는 Ethereum Dapp Market
+삼성전자의 IoT연계를 검증하는 세탁기 - Ethereum PoC 등 다양한 방향으로 PoC 및 서비스 개발이 진행되고 있습니다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>- 가트너 10대기술 장표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 고도화 안 1장 
-- 다른주제 PoC 1장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장표(내용/Page)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -244,16 +464,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>- 기술요소 비교표
-- 기술요소 ScreeenShot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 중요한 개념은 가급적 장표를 작성하되 PT시엔 아래 스크립트에 맞춰 생략한다.</t>
+    <t xml:space="preserve">정산로직은 심플합니다.
+0. 전체 예치수량 중 거래 수수료를 제한 후 
+1. 예치시점의 1인당 예치 원화가치에 상응하는 , 정산시점 시세에 맞춘 이더리움 수량을 계산후 Hedger 옵션주문자에게 전송하고, 
+2. 그외 남은 이더리움 수량을 Investor에게 전송합니다. 
+Hedger는 예치시점 원화가치를 유지해서 요건을 충족했고,
+Investor는 변동된 가치에 따라 상승장엔 Hedeger의 원화가치상승분을 수익으로 얻고 하락장엔 Hedger의 원화가치 하락분을 보전해주게 됩니다.
+이 모든 과정은 중앙집권화된 기관, 서버 ,운영자의 개입이 없이, 이더리움 블록체인 상에서 Smartcontract을 통해 이루어집니다. 이를 탈 중앙화라고 합니다. 탈중앙화의 추가설명은 시간관계상 생략하겠습니다.
+관련 AA는 다음과 같습니다.(10초정도 부연설명)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 거래 전후 정산 표
+( 3대거래소 시세 평균 가져오는것 표현)
+- AA 그림(탈중앙화) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 계획은 2가지 방향이 있습니다.
+기존의 구현된 결과물을 고도화 하여 지원되는 암호화폐의 다양화, 
+사용자의 예치화폐를 이용한 여신기능 추가도 고려 가능합니다.
+또는 전혀 새로운 업종으로의 PoC도 고려중입니다.
+이더리움의 미래 가치는  블록체인이 메시기술로 분류된것과 일맥상통합니다.
+IoT와 접목되어 무신뢰,무인격 개체간 네트워크 상 거래의 무결성을 보장
+기부 Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 고도화 안 1장 
+- 다른주제 PoC 1장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 탈 중앙화 : 중앙집권화된 매개체 없이 
+                  모든 개체(Peer) 가 동등한 권리와 정보로 거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기술적 관점과(Blockchain) , 시장수요관점의 조합(암호화폐투자시장)
+시연(ScreenShot 위주)
+ApplicationArchitecture 그림1개
+BM(Usecase) 에 비중을둠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Screenshot과 AA장표는 간략하게 소개
+*거래소는 OrderBook과 </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -285,146 +561,23 @@
 관련인력의 이해도 높임.
 go-client
 web3.js
-solidity
+solidity/serpent, LLL , Mutan
 node.js
 jquery
 git
 Atom editor(solidity plugin)
 Rospten TestNet, LocalTestnet
-Browser Solidity</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum 프로젝트는 이더리움재단을 주축으로 하는 오픈소스프로젝트로, 멀티플랫폼을 지원하며,
-개발 Roadmap에 따라, 현재 Homestead 단계에 진입한 상태입니다.
-사용된 기술요소는 직관적인 비교를 위해, 사내 블록체인 표준기술인Hyperledger-Febric의 기술요소와 매핑했습니다.
-주요 기술로 , 
-Backend 즉 Smartcontract를 작성하는 Solidity, 
-Frontend, Web에서 Ethereum노드와 통신하며 서비스를 제공하는 web3.js
-가 있고, 
-그외 공통요소인 jquery, node.js/ git 등이 활용되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ethereum의 대표 Keyword는  SmartContract입니다.
-블록체인 1세대인 비트코인이 A로부터 B로 송금한 내역을 모든 Peer가 같이 보유해서 그 거래를 인증했다면,
-블록체인 2세대인 이더리움은 송금내역과 SmartContract이라 불리는 비즈니스 로직을 모든 Peer가 같이 보유하고 실행합니다.
-이로서, SmartContract 수행결과는 모든 Peer에서 동일하며, 계약 의 수행 결과는 모두 신뢰할 수 있습니다.
-이러한 특성을 기반으로  탈중앙화, 무신뢰개체간 계약등의 서비스가 가능해지며
-이를 기업 비즈니스에서 활용하기 위한 EEA
-앱스토어와 동일한방식으로 B2C서비스를 제공하는 Ethereum Dapp Market
-삼성전자의 IoT연계를 검증하는 세탁기 - Ethereum PoC 등 다양한 방향으로 PoC 및 서비스 개발이 진행되고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가트너 선정 2017, 2018 10대 전략기술 으로 선정되었음 
-2017년은 
-분산원장으로서, 다소 제한적 용도의 블록체인 개념으로 접근 되었다면 
-2018년은 
-BackendITInfra개념의 매쉬로 분류되며 블록체인 개념 그 자체로 확장해가고 있습니다.
-다양한 업권에서 실험적인 PoC를 거치며 활용가능성을 구체화 하는 과정입니다.
-우리 과제도 그러한PoC의 일환으로 진행되었습니다.
-그 중심에 Ethereum 기술이 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기술적 관점과(Blockchain) , 시장수요관점의 조합(암호화폐투자시장)
-시연(ScreenShot 위주)
-ApplicationArchitecture 그림1개
-BM(Usecase) 에 비중을둠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Screenshot과 AA장표는 간략하게 소개
-*거래소는 OrderBook과 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분, 비트코인 또는 이더리움 투자 해보셨나요
-국내 암호화폐 거래소의 일일거래액이 코스닥을 능가했다고합니다.
-직접 투자하지 않아도, 뉴스를 통해 폭등, 투기 등의 키워드를 함께 접하실수 있을껍니다.
-저희는 암호화폐의 기술적 근원인 블록체인을 직접 활용해 이더리움 통화시장의 투자 수요와 리스크 햇지 수요를 상호간 충족할 수 있는 BM을 구현해 보았습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이후 계획은 2가지 방향이 있습니다.
-기존의 구현된 결과물을 고도화 하여 지원되는 암호화폐의 다양화, 
-사용자의 예치화폐를 이용한 여신기능 추가도 고려 가능합니다.
-또는 전혀 새로운 업권으로의 PoC도 고려중입니다.
-이더리움의 미래 가치는  블록체인이 메시기술로 분류된것과 일맥상통합니다.
-IoT와 접목되어 무신뢰,무인격 개체간 네트워크 상 거래에서 신뢰를 보장
-기부 Contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술과는 별개로 , 암호화폐 거래시장에서의 이더리움은 위상이 높습니다.
-시가 총액은 비트코인에 이어 2위에 위치하며, 
-올해 1Ether당 가격은  연초 만원대로 시작하여 50만원을거쳐 현재 30만원대에 이르기까지 급격한 변동성을 보입니다.
-이런 변동성이 우리 BM의 수요를 만듭니다.
-여기에 2명의 이더리움을 보유한 수요자가 있습니다.
-에어비엔비를 통해  단기 임대사업을 하는 김비엔비씨는 인터넷을 통해 이더리움을 결재수단으로 받으며, 그렇게 보유한 이더리움 자산이 안정적인 원화가치를 갖길 원합니다. 즉 리스크헷지를 원합니다.
-반대로, 이더의 가치변동성을 연구해온 최투자씨는 특정시점의 컨퍼런스, 호재발표 등을 통해 가치가 폭등하는 패턴을 연구해, 더 큰 투자수익을 원합니다.
-두사람은 각각 우리 마켓에 접속합니다.
-김비엔비씨는 2달뒤 특정일자로 정산일을 설정하고, Hedger옵션을 선택한 신규주문을 만들고
-최투자씨는 김비엔비씨가 만든 주문의 정산일자에,  Invester옵션을 선택해 해당주문을 체결합니다. 
-최투자씨는 김비엔비씨의 주문에 설정된 정산일의 이더 당 원화가치가  현재보다 상승해있을 것임을 예상합니다.
-체결과 동시에 두사람이 보유한 이더리움 자산은 우리 마켓의 smartcontract에 예치되며, 정산일에 도달하면 수수료를 제외 후 , 정산하여 원래의 최투자,김비엔비씨의 이더리움지갑으로 송금됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- Usecase - 
- 암호화폐 시가총액(coinmarketcap.com)
- 이더리움 시세 연간그래프
-- Stakeholder : investor/hedger 소개
-- 시연 3장(webpage + 지갑결재창)
-  (A가 등록,B가 채결, 정산후 결과)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정산로직은 심플합니다.
-0. 전체 예치수량 중 거래 수수료를 제한 후 
-1. 예치시점의 1인당 예치 원화가치에 상응하는 , 정산시점 시세에 맞춘 이더리움 수량을 계산후 Hedger 옵션주문자에게 전송하고, 
-2. 그외 남은 이더리움 수량을 Investor에게 전송합니다. 
-Hedger는 예치시점 원화가치를 유지해서 요건을 충족했고,
-Investor는 변동된 가치에 따라 상승장엔 Hedeger의 원화가치상승분을 수익으로 얻고 하락장엔 Hedger의 원화가치 하락분을 보전해주게 됩니다.
-이 모든 과정은 중앙집권화된 기관, 서버 ,운영자의 개입이 없이, 이더리움 블록체인 상에서 Smartcontract을 통해 이루어집니다. 이를 탈 중앙화라고 합니다. 탈중앙화의 추가설명은 시간관계상 생략하겠습니다.
-관련 AA는 다음과 같습니다.(10초정도 부연설명)
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">- 거래 전후 정산 표
-( 3대거래소 시세 평균 가져오는것 표현)
-- AA 그림(탈중앙화) </t>
+Browser Solidity
+Frontier - Homestead - Metropolis - Serenity</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,7 +663,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -633,7 +798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,15 +811,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -709,6 +868,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,11 +916,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,6 +934,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>756565</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="6972299"/>
+          <a:ext cx="8414665" cy="3818963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,6 +1054,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -868,6 +1089,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1043,226 +1265,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="58.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="52.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="58.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="52.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25">
-      <c r="A1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" ht="27">
-      <c r="A2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
+      <c r="E2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3">
         <f>SUM(B4:B10)</f>
         <v>360</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f xml:space="preserve"> 360 - B3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="24">
+      <c r="D3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="22">
         <f>SUM(F4:F10)</f>
         <v>15</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="150" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="G3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11">
         <v>20</v>
       </c>
-      <c r="F4" s="19">
+      <c r="C4" s="11"/>
+      <c r="D4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17">
         <v>1</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="189">
-      <c r="A5" s="9" t="s">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="189" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="270" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12">
+        <v>50</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="286.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35">
+        <v>160</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="234" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14">
-        <v>50</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="20">
-        <v>3</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F8" s="19">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="288.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12">
+        <v>40</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="286.5" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="D10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.5" customHeight="1">
-      <c r="A8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="31">
-        <v>160</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="21">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="250.5" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="288.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="21">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1281,25 +1503,158 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="63.75" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="27">
+        <v>43042</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
